--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UiPath\RoboticEnterpriseFramework\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UiPath\Robotic_Enterprise_Framework\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0660C9A-6601-4543-B43D-401DE6600E3A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1C87C51-2E1B-4B67-B531-A8BDC445A4B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3860" yWindow="2020" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -133,7 +133,7 @@
     <t>Salesforce Login.xlsx</t>
   </si>
   <si>
-    <t>ReFramework_Testing_Queue</t>
+    <t>ReFramework_Testing</t>
   </si>
 </sst>
 </file>
@@ -513,7 +513,7 @@
   <dimension ref="A1:Z999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
